--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CQU-ZG\leetcode\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
   <si>
     <t>Remove Duplicates from Sorted Array</t>
   </si>
@@ -646,7 +646,7 @@
   <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -790,6 +790,9 @@
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D10" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -800,6 +803,9 @@
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
   <si>
     <t>Remove Duplicates from Sorted Array</t>
   </si>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -818,6 +818,9 @@
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D12" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -828,6 +831,9 @@
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
   <si>
     <t>Remove Duplicates from Sorted Array</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>Game of Life</t>
-  </si>
-  <si>
-    <t>Interval</t>
   </si>
   <si>
     <t>Insert Interval</t>
@@ -277,6 +274,14 @@
   </si>
   <si>
     <t>个人总结：视频网站、博客等可加快刷题速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Counter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,7 +651,7 @@
   <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -659,13 +664,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -676,10 +681,10 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -693,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -707,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -721,7 +726,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -735,7 +740,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -749,7 +754,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -760,10 +765,10 @@
         <v>299</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -777,7 +782,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -791,7 +796,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -805,7 +810,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -819,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -833,7 +838,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -846,6 +851,9 @@
       <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D14" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -868,8 +876,11 @@
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -879,8 +890,11 @@
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -890,8 +904,11 @@
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -901,8 +918,11 @@
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -912,8 +932,11 @@
       <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -924,7 +947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -935,7 +958,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -946,7 +969,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -957,7 +980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -968,7 +991,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -979,7 +1002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -990,7 +1013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1001,7 +1024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1012,7 +1035,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1023,7 +1046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1034,7 +1057,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1091,7 +1114,7 @@
     </row>
     <row r="37" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>33</v>
@@ -1144,10 +1167,10 @@
     </row>
     <row r="42" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="C42" s="2"/>
     </row>
@@ -1159,7 +1182,7 @@
         <v>57</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1170,7 +1193,7 @@
         <v>56</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1181,7 +1204,7 @@
         <v>252</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1192,7 +1215,7 @@
         <v>253</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1203,15 +1226,15 @@
         <v>352</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C48" s="2"/>
     </row>
@@ -1223,7 +1246,7 @@
         <v>239</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1234,7 +1257,7 @@
         <v>295</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1245,7 +1268,7 @@
         <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1256,7 +1279,7 @@
         <v>325</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1267,7 +1290,7 @@
         <v>209</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1278,7 +1301,7 @@
         <v>238</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1289,7 +1312,7 @@
         <v>152</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1300,7 +1323,7 @@
         <v>228</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1311,15 +1334,15 @@
         <v>163</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C58" s="2"/>
     </row>
@@ -1331,7 +1354,7 @@
         <v>88</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1342,7 +1365,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1353,7 +1376,7 @@
         <v>283</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1364,7 +1387,7 @@
         <v>376</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1375,7 +1398,7 @@
         <v>280</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1386,7 +1409,7 @@
         <v>324</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1397,7 +1420,7 @@
         <v>278</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1408,7 +1431,7 @@
         <v>35</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1419,7 +1442,7 @@
         <v>33</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1430,7 +1453,7 @@
         <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1441,7 +1464,7 @@
         <v>153</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1452,7 +1475,7 @@
         <v>154</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1463,7 +1486,7 @@
         <v>162</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1474,7 +1497,7 @@
         <v>374</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1485,7 +1508,7 @@
         <v>34</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1496,7 +1519,7 @@
         <v>349</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1507,7 +1530,7 @@
         <v>350</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1518,7 +1541,7 @@
         <v>315</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1529,7 +1552,7 @@
         <v>300</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -1540,7 +1563,7 @@
         <v>354</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
